--- a/rbtexcel/rbtNew.xlsx
+++ b/rbtexcel/rbtNew.xlsx
@@ -476,7 +476,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H334:H1048576">
       <formula1>"Occassion1, Occassion2, Occassion3"</formula1>
     </dataValidation>
   </dataValidations>

--- a/rbtexcel/rbtNew.xlsx
+++ b/rbtexcel/rbtNew.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rbt_system_php7\rbtexcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\php7.2\xampp\htdocs\rbt_system_php7\rbtexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,8 +23,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>mohamed mahmoud</author>
+  </authors>
+  <commentList>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>mohamed mahmoud:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+2020-10-22</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>mohamed mahmoud:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+2020-10-27</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Artist Name English</t>
   </si>
@@ -51,13 +109,19 @@
   </si>
   <si>
     <t>Master Content Code</t>
+  </si>
+  <si>
+    <t>Strat Date</t>
+  </si>
+  <si>
+    <t>Expire Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +141,19 @@
       <sz val="10"/>
       <color rgb="FF888888"/>
       <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -419,11 +496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -437,9 +514,11 @@
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,8 +549,14 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="J2" s="3"/>
     </row>
   </sheetData>
@@ -482,5 +567,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/rbtexcel/rbtNew.xlsx
+++ b/rbtexcel/rbtNew.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\php7.2\xampp\htdocs\rbt_system_php7\rbtexcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rbt_system_php7\rbtexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -111,10 +111,10 @@
     <t>Master Content Code</t>
   </si>
   <si>
-    <t>Strat Date</t>
-  </si>
-  <si>
     <t>Expire Date</t>
+  </si>
+  <si>
+    <t>Start Date</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -550,10 +550,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12">
